--- a/downloaded_files/MDPS478_Lecture-35899.xlsx
+++ b/downloaded_files/MDPS478_Lecture-35899.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,6 +33,24 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
+    <x:t>1210403</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد سامح عاطف عشيش</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Sameh Atef Eshashe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210046</x:t>
+  </x:si>
+  <x:si>
+    <x:t>امير ميشيل فاروق مسعد بولس</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Amir Michel Farouk Mosaad</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210049</x:t>
   </x:si>
   <x:si>
@@ -42,6 +60,15 @@
     <x:t>Toka Mohamed Salah El Dine Mohamed Madbouly</x:t>
   </x:si>
   <x:si>
+    <x:t>1210214</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حازم محمد عبد السلام لطفي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hazem mohamed abdelsalam lotfy</x:t>
+  </x:si>
+  <x:si>
     <x:t>4220120</x:t>
   </x:si>
   <x:si>
@@ -49,6 +76,87 @@
   </x:si>
   <x:si>
     <x:t>Assem Ali Mohamed Ibrahim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210149</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبد الله أمير عبد المنعم خفاجي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdullah Amir Abdel monegan khafagy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210352</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن خالد محمد محمود جادالله</x:t>
+  </x:si>
+  <x:si>
+    <x:t>abdulrhman khalid mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4220128</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن محمود سعدالدين احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdel Rahman Mahmoud</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210251</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن وائل عبدالرازق السيد موافى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman wael abdelrazek el seid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210292</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد نهاد سيد احمد القنواتي</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">  Mohamed Nehad Sayed Ahmed El kanawaty</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210027</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمود احمد عبد الحميد محمد سالمان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahmoud Ahmed Abdel-Hamid Salman</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210297</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمود وليد محمود عبدالرحمن الشايب</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahmoud Waleed Mahmoud El Shayep</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210419</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مينا عادل ماهر وصفى ناثان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mina Adel Maher Wasfi Nathan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210338</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف سيد بدير احمد امين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef sayed bedier ahmed amin</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -164,7 +272,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E3" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E15" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -464,7 +572,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T3"/>
+  <x:dimension ref="A1:T15"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -472,7 +580,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="27.010625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="28.240625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="45.000625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -555,7 +663,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45918.3666763889</x:v>
+        <x:v>45920.4056724537</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -587,7 +695,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45918.3691414699</x:v>
+        <x:v>45920.4125008912</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -604,6 +712,390 @@
       <x:c r="R3" s="2" t="s"/>
       <x:c r="S3" s="2" t="s"/>
       <x:c r="T3" s="2" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:20">
+      <x:c r="A4" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C4" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D4" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E4" s="3">
+        <x:v>45918.3666763889</x:v>
+      </x:c>
+      <x:c r="F4" s="2" t="s"/>
+      <x:c r="G4" s="2" t="s"/>
+      <x:c r="H4" s="2" t="s"/>
+      <x:c r="I4" s="2" t="s"/>
+      <x:c r="J4" s="2" t="s"/>
+      <x:c r="K4" s="2" t="s"/>
+      <x:c r="L4" s="2" t="s"/>
+      <x:c r="M4" s="2" t="s"/>
+      <x:c r="N4" s="2" t="s"/>
+      <x:c r="O4" s="2" t="s"/>
+      <x:c r="P4" s="2" t="s"/>
+      <x:c r="Q4" s="2" t="s"/>
+      <x:c r="R4" s="2" t="s"/>
+      <x:c r="S4" s="2" t="s"/>
+      <x:c r="T4" s="2" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:20">
+      <x:c r="A5" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E5" s="3">
+        <x:v>45920.4042996875</x:v>
+      </x:c>
+      <x:c r="F5" s="2" t="s"/>
+      <x:c r="G5" s="2" t="s"/>
+      <x:c r="H5" s="2" t="s"/>
+      <x:c r="I5" s="2" t="s"/>
+      <x:c r="J5" s="2" t="s"/>
+      <x:c r="K5" s="2" t="s"/>
+      <x:c r="L5" s="2" t="s"/>
+      <x:c r="M5" s="2" t="s"/>
+      <x:c r="N5" s="2" t="s"/>
+      <x:c r="O5" s="2" t="s"/>
+      <x:c r="P5" s="2" t="s"/>
+      <x:c r="Q5" s="2" t="s"/>
+      <x:c r="R5" s="2" t="s"/>
+      <x:c r="S5" s="2" t="s"/>
+      <x:c r="T5" s="2" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:20">
+      <x:c r="A6" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E6" s="3">
+        <x:v>45918.3691414699</x:v>
+      </x:c>
+      <x:c r="F6" s="2" t="s"/>
+      <x:c r="G6" s="2" t="s"/>
+      <x:c r="H6" s="2" t="s"/>
+      <x:c r="I6" s="2" t="s"/>
+      <x:c r="J6" s="2" t="s"/>
+      <x:c r="K6" s="2" t="s"/>
+      <x:c r="L6" s="2" t="s"/>
+      <x:c r="M6" s="2" t="s"/>
+      <x:c r="N6" s="2" t="s"/>
+      <x:c r="O6" s="2" t="s"/>
+      <x:c r="P6" s="2" t="s"/>
+      <x:c r="Q6" s="2" t="s"/>
+      <x:c r="R6" s="2" t="s"/>
+      <x:c r="S6" s="2" t="s"/>
+      <x:c r="T6" s="2" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:20">
+      <x:c r="A7" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E7" s="3">
+        <x:v>45920.4104132292</x:v>
+      </x:c>
+      <x:c r="F7" s="2" t="s"/>
+      <x:c r="G7" s="2" t="s"/>
+      <x:c r="H7" s="2" t="s"/>
+      <x:c r="I7" s="2" t="s"/>
+      <x:c r="J7" s="2" t="s"/>
+      <x:c r="K7" s="2" t="s"/>
+      <x:c r="L7" s="2" t="s"/>
+      <x:c r="M7" s="2" t="s"/>
+      <x:c r="N7" s="2" t="s"/>
+      <x:c r="O7" s="2" t="s"/>
+      <x:c r="P7" s="2" t="s"/>
+      <x:c r="Q7" s="2" t="s"/>
+      <x:c r="R7" s="2" t="s"/>
+      <x:c r="S7" s="2" t="s"/>
+      <x:c r="T7" s="2" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:20">
+      <x:c r="A8" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D8" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E8" s="3">
+        <x:v>45920.4092335648</x:v>
+      </x:c>
+      <x:c r="F8" s="2" t="s"/>
+      <x:c r="G8" s="2" t="s"/>
+      <x:c r="H8" s="2" t="s"/>
+      <x:c r="I8" s="2" t="s"/>
+      <x:c r="J8" s="2" t="s"/>
+      <x:c r="K8" s="2" t="s"/>
+      <x:c r="L8" s="2" t="s"/>
+      <x:c r="M8" s="2" t="s"/>
+      <x:c r="N8" s="2" t="s"/>
+      <x:c r="O8" s="2" t="s"/>
+      <x:c r="P8" s="2" t="s"/>
+      <x:c r="Q8" s="2" t="s"/>
+      <x:c r="R8" s="2" t="s"/>
+      <x:c r="S8" s="2" t="s"/>
+      <x:c r="T8" s="2" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:20">
+      <x:c r="A9" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D9" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E9" s="3">
+        <x:v>45920.4022513079</x:v>
+      </x:c>
+      <x:c r="F9" s="2" t="s"/>
+      <x:c r="G9" s="2" t="s"/>
+      <x:c r="H9" s="2" t="s"/>
+      <x:c r="I9" s="2" t="s"/>
+      <x:c r="J9" s="2" t="s"/>
+      <x:c r="K9" s="2" t="s"/>
+      <x:c r="L9" s="2" t="s"/>
+      <x:c r="M9" s="2" t="s"/>
+      <x:c r="N9" s="2" t="s"/>
+      <x:c r="O9" s="2" t="s"/>
+      <x:c r="P9" s="2" t="s"/>
+      <x:c r="Q9" s="2" t="s"/>
+      <x:c r="R9" s="2" t="s"/>
+      <x:c r="S9" s="2" t="s"/>
+      <x:c r="T9" s="2" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:20">
+      <x:c r="A10" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D10" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E10" s="3">
+        <x:v>45920.4014879977</x:v>
+      </x:c>
+      <x:c r="F10" s="2" t="s"/>
+      <x:c r="G10" s="2" t="s"/>
+      <x:c r="H10" s="2" t="s"/>
+      <x:c r="I10" s="2" t="s"/>
+      <x:c r="J10" s="2" t="s"/>
+      <x:c r="K10" s="2" t="s"/>
+      <x:c r="L10" s="2" t="s"/>
+      <x:c r="M10" s="2" t="s"/>
+      <x:c r="N10" s="2" t="s"/>
+      <x:c r="O10" s="2" t="s"/>
+      <x:c r="P10" s="2" t="s"/>
+      <x:c r="Q10" s="2" t="s"/>
+      <x:c r="R10" s="2" t="s"/>
+      <x:c r="S10" s="2" t="s"/>
+      <x:c r="T10" s="2" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:20">
+      <x:c r="A11" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D11" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E11" s="3">
+        <x:v>45920.4030414699</x:v>
+      </x:c>
+      <x:c r="F11" s="2" t="s"/>
+      <x:c r="G11" s="2" t="s"/>
+      <x:c r="H11" s="2" t="s"/>
+      <x:c r="I11" s="2" t="s"/>
+      <x:c r="J11" s="2" t="s"/>
+      <x:c r="K11" s="2" t="s"/>
+      <x:c r="L11" s="2" t="s"/>
+      <x:c r="M11" s="2" t="s"/>
+      <x:c r="N11" s="2" t="s"/>
+      <x:c r="O11" s="2" t="s"/>
+      <x:c r="P11" s="2" t="s"/>
+      <x:c r="Q11" s="2" t="s"/>
+      <x:c r="R11" s="2" t="s"/>
+      <x:c r="S11" s="2" t="s"/>
+      <x:c r="T11" s="2" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:20">
+      <x:c r="A12" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B12" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D12" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E12" s="3">
+        <x:v>45920.400809919</x:v>
+      </x:c>
+      <x:c r="F12" s="2" t="s"/>
+      <x:c r="G12" s="2" t="s"/>
+      <x:c r="H12" s="2" t="s"/>
+      <x:c r="I12" s="2" t="s"/>
+      <x:c r="J12" s="2" t="s"/>
+      <x:c r="K12" s="2" t="s"/>
+      <x:c r="L12" s="2" t="s"/>
+      <x:c r="M12" s="2" t="s"/>
+      <x:c r="N12" s="2" t="s"/>
+      <x:c r="O12" s="2" t="s"/>
+      <x:c r="P12" s="2" t="s"/>
+      <x:c r="Q12" s="2" t="s"/>
+      <x:c r="R12" s="2" t="s"/>
+      <x:c r="S12" s="2" t="s"/>
+      <x:c r="T12" s="2" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:20">
+      <x:c r="A13" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D13" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E13" s="3">
+        <x:v>45920.4080319792</x:v>
+      </x:c>
+      <x:c r="F13" s="2" t="s"/>
+      <x:c r="G13" s="2" t="s"/>
+      <x:c r="H13" s="2" t="s"/>
+      <x:c r="I13" s="2" t="s"/>
+      <x:c r="J13" s="2" t="s"/>
+      <x:c r="K13" s="2" t="s"/>
+      <x:c r="L13" s="2" t="s"/>
+      <x:c r="M13" s="2" t="s"/>
+      <x:c r="N13" s="2" t="s"/>
+      <x:c r="O13" s="2" t="s"/>
+      <x:c r="P13" s="2" t="s"/>
+      <x:c r="Q13" s="2" t="s"/>
+      <x:c r="R13" s="2" t="s"/>
+      <x:c r="S13" s="2" t="s"/>
+      <x:c r="T13" s="2" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:20">
+      <x:c r="A14" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B14" s="2" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D14" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E14" s="3">
+        <x:v>45920.4048861458</x:v>
+      </x:c>
+      <x:c r="F14" s="2" t="s"/>
+      <x:c r="G14" s="2" t="s"/>
+      <x:c r="H14" s="2" t="s"/>
+      <x:c r="I14" s="2" t="s"/>
+      <x:c r="J14" s="2" t="s"/>
+      <x:c r="K14" s="2" t="s"/>
+      <x:c r="L14" s="2" t="s"/>
+      <x:c r="M14" s="2" t="s"/>
+      <x:c r="N14" s="2" t="s"/>
+      <x:c r="O14" s="2" t="s"/>
+      <x:c r="P14" s="2" t="s"/>
+      <x:c r="Q14" s="2" t="s"/>
+      <x:c r="R14" s="2" t="s"/>
+      <x:c r="S14" s="2" t="s"/>
+      <x:c r="T14" s="2" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:20">
+      <x:c r="A15" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D15" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E15" s="3">
+        <x:v>45920.4062290856</x:v>
+      </x:c>
+      <x:c r="F15" s="2" t="s"/>
+      <x:c r="G15" s="2" t="s"/>
+      <x:c r="H15" s="2" t="s"/>
+      <x:c r="I15" s="2" t="s"/>
+      <x:c r="J15" s="2" t="s"/>
+      <x:c r="K15" s="2" t="s"/>
+      <x:c r="L15" s="2" t="s"/>
+      <x:c r="M15" s="2" t="s"/>
+      <x:c r="N15" s="2" t="s"/>
+      <x:c r="O15" s="2" t="s"/>
+      <x:c r="P15" s="2" t="s"/>
+      <x:c r="Q15" s="2" t="s"/>
+      <x:c r="R15" s="2" t="s"/>
+      <x:c r="S15" s="2" t="s"/>
+      <x:c r="T15" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS478_Lecture-35899.xlsx
+++ b/downloaded_files/MDPS478_Lecture-35899.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -67,15 +67,6 @@
   </x:si>
   <x:si>
     <x:t>Hazem mohamed abdelsalam lotfy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4220120</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عاصم على محمد ابراهيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Assem Ali Mohamed Ibrahim</x:t>
   </x:si>
   <x:si>
     <x:t>1210149</x:t>
@@ -272,7 +263,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E15" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E14" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -572,7 +563,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T15"/>
+  <x:dimension ref="A1:T14"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -791,7 +782,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45918.3691414699</x:v>
+        <x:v>45920.4104132292</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -823,7 +814,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45920.4104132292</x:v>
+        <x:v>45920.4092335648</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -855,7 +846,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45920.4092335648</x:v>
+        <x:v>45920.4022513079</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -887,7 +878,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45920.4022513079</x:v>
+        <x:v>45920.4014879977</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -919,7 +910,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45920.4014879977</x:v>
+        <x:v>45920.4030414699</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -951,7 +942,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45920.4030414699</x:v>
+        <x:v>45920.400809919</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -983,7 +974,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45920.400809919</x:v>
+        <x:v>45920.4080319792</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1015,7 +1006,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45920.4080319792</x:v>
+        <x:v>45920.4048861458</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1047,7 +1038,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45920.4048861458</x:v>
+        <x:v>45920.4062290856</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1064,38 +1055,6 @@
       <x:c r="R14" s="2" t="s"/>
       <x:c r="S14" s="2" t="s"/>
       <x:c r="T14" s="2" t="s"/>
-    </x:row>
-    <x:row r="15" spans="1:20">
-      <x:c r="A15" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B15" s="2" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="C15" s="2" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="D15" s="2" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="E15" s="3">
-        <x:v>45920.4062290856</x:v>
-      </x:c>
-      <x:c r="F15" s="2" t="s"/>
-      <x:c r="G15" s="2" t="s"/>
-      <x:c r="H15" s="2" t="s"/>
-      <x:c r="I15" s="2" t="s"/>
-      <x:c r="J15" s="2" t="s"/>
-      <x:c r="K15" s="2" t="s"/>
-      <x:c r="L15" s="2" t="s"/>
-      <x:c r="M15" s="2" t="s"/>
-      <x:c r="N15" s="2" t="s"/>
-      <x:c r="O15" s="2" t="s"/>
-      <x:c r="P15" s="2" t="s"/>
-      <x:c r="Q15" s="2" t="s"/>
-      <x:c r="R15" s="2" t="s"/>
-      <x:c r="S15" s="2" t="s"/>
-      <x:c r="T15" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS478_Lecture-35899.xlsx
+++ b/downloaded_files/MDPS478_Lecture-35899.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -67,6 +67,15 @@
   </x:si>
   <x:si>
     <x:t>Hazem mohamed abdelsalam lotfy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210053</x:t>
+  </x:si>
+  <x:si>
+    <x:t>رنا عاطف سعد عرفه موسى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rana Atef saad arafa</x:t>
   </x:si>
   <x:si>
     <x:t>1210149</x:t>
@@ -263,7 +272,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E14" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E15" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -563,7 +572,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T14"/>
+  <x:dimension ref="A1:T15"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -573,7 +582,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="28.240625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="45.000625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -782,7 +791,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45920.4104132292</x:v>
+        <x:v>45923.9138647338</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -814,7 +823,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45920.4092335648</x:v>
+        <x:v>45920.4104132292</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -846,7 +855,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45920.4022513079</x:v>
+        <x:v>45920.4092335648</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -878,7 +887,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45920.4014879977</x:v>
+        <x:v>45920.4022513079</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -910,7 +919,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45920.4030414699</x:v>
+        <x:v>45920.4014879977</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -942,7 +951,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45920.400809919</x:v>
+        <x:v>45920.4030414699</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -974,7 +983,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45920.4080319792</x:v>
+        <x:v>45920.400809919</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1006,7 +1015,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45920.4048861458</x:v>
+        <x:v>45920.4080319792</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1038,7 +1047,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45920.4062290856</x:v>
+        <x:v>45920.4048861458</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1055,6 +1064,38 @@
       <x:c r="R14" s="2" t="s"/>
       <x:c r="S14" s="2" t="s"/>
       <x:c r="T14" s="2" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:20">
+      <x:c r="A15" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D15" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E15" s="3">
+        <x:v>45920.4062290856</x:v>
+      </x:c>
+      <x:c r="F15" s="2" t="s"/>
+      <x:c r="G15" s="2" t="s"/>
+      <x:c r="H15" s="2" t="s"/>
+      <x:c r="I15" s="2" t="s"/>
+      <x:c r="J15" s="2" t="s"/>
+      <x:c r="K15" s="2" t="s"/>
+      <x:c r="L15" s="2" t="s"/>
+      <x:c r="M15" s="2" t="s"/>
+      <x:c r="N15" s="2" t="s"/>
+      <x:c r="O15" s="2" t="s"/>
+      <x:c r="P15" s="2" t="s"/>
+      <x:c r="Q15" s="2" t="s"/>
+      <x:c r="R15" s="2" t="s"/>
+      <x:c r="S15" s="2" t="s"/>
+      <x:c r="T15" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS478_Lecture-35899.xlsx
+++ b/downloaded_files/MDPS478_Lecture-35899.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -78,6 +78,15 @@
     <x:t>Rana Atef saad arafa</x:t>
   </x:si>
   <x:si>
+    <x:t>1210223</x:t>
+  </x:si>
+  <x:si>
+    <x:t>روان محمد سموءل رزق سالم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rawan Mohamed Samawal Rezk</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210149</x:t>
   </x:si>
   <x:si>
@@ -139,6 +148,15 @@
   </x:si>
   <x:si>
     <x:t>Mahmoud Waleed Mahmoud El Shayep</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210031</x:t>
+  </x:si>
+  <x:si>
+    <x:t>منة الله مدحت عبد الرازق على عثمان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Menna Tullah Medhat Abdelrazik Aly</x:t>
   </x:si>
   <x:si>
     <x:t>1210419</x:t>
@@ -272,7 +290,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E15" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E17" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -572,7 +590,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T15"/>
+  <x:dimension ref="A1:T17"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -823,7 +841,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45920.4104132292</x:v>
+        <x:v>45925.4100621875</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -855,7 +873,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45920.4092335648</x:v>
+        <x:v>45920.4104132292</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -887,7 +905,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45920.4022513079</x:v>
+        <x:v>45920.4092335648</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -919,7 +937,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45920.4014879977</x:v>
+        <x:v>45920.4022513079</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -951,7 +969,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45920.4030414699</x:v>
+        <x:v>45920.4014879977</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -983,7 +1001,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45920.400809919</x:v>
+        <x:v>45920.4030414699</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1015,7 +1033,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45920.4080319792</x:v>
+        <x:v>45920.400809919</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1047,7 +1065,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45920.4048861458</x:v>
+        <x:v>45920.4080319792</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1079,7 +1097,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45920.4062290856</x:v>
+        <x:v>45925.4111473032</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1096,6 +1114,70 @@
       <x:c r="R15" s="2" t="s"/>
       <x:c r="S15" s="2" t="s"/>
       <x:c r="T15" s="2" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:20">
+      <x:c r="A16" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D16" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="E16" s="3">
+        <x:v>45920.4048861458</x:v>
+      </x:c>
+      <x:c r="F16" s="2" t="s"/>
+      <x:c r="G16" s="2" t="s"/>
+      <x:c r="H16" s="2" t="s"/>
+      <x:c r="I16" s="2" t="s"/>
+      <x:c r="J16" s="2" t="s"/>
+      <x:c r="K16" s="2" t="s"/>
+      <x:c r="L16" s="2" t="s"/>
+      <x:c r="M16" s="2" t="s"/>
+      <x:c r="N16" s="2" t="s"/>
+      <x:c r="O16" s="2" t="s"/>
+      <x:c r="P16" s="2" t="s"/>
+      <x:c r="Q16" s="2" t="s"/>
+      <x:c r="R16" s="2" t="s"/>
+      <x:c r="S16" s="2" t="s"/>
+      <x:c r="T16" s="2" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:20">
+      <x:c r="A17" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D17" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E17" s="3">
+        <x:v>45920.4062290856</x:v>
+      </x:c>
+      <x:c r="F17" s="2" t="s"/>
+      <x:c r="G17" s="2" t="s"/>
+      <x:c r="H17" s="2" t="s"/>
+      <x:c r="I17" s="2" t="s"/>
+      <x:c r="J17" s="2" t="s"/>
+      <x:c r="K17" s="2" t="s"/>
+      <x:c r="L17" s="2" t="s"/>
+      <x:c r="M17" s="2" t="s"/>
+      <x:c r="N17" s="2" t="s"/>
+      <x:c r="O17" s="2" t="s"/>
+      <x:c r="P17" s="2" t="s"/>
+      <x:c r="Q17" s="2" t="s"/>
+      <x:c r="R17" s="2" t="s"/>
+      <x:c r="S17" s="2" t="s"/>
+      <x:c r="T17" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS478_Lecture-35899.xlsx
+++ b/downloaded_files/MDPS478_Lecture-35899.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -42,6 +42,24 @@
     <x:t>Ahmed Sameh Atef Eshashe</x:t>
   </x:si>
   <x:si>
+    <x:t>1200785</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد عبدالنبى ابو المجد عبدالمتجلى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ahmed abdelnaby aboelmagd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1200787</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد على حسين صفيان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AHMED ALY HUSSEIN SAFIAN</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210046</x:t>
   </x:si>
   <x:si>
@@ -51,6 +69,15 @@
     <x:t>Amir Michel Farouk Mosaad</x:t>
   </x:si>
   <x:si>
+    <x:t>1210132</x:t>
+  </x:si>
+  <x:si>
+    <x:t>بيشوى كمال برسوم كمال ابو غالى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bishoy Kamal Barsoum Kamal</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210049</x:t>
   </x:si>
   <x:si>
@@ -114,6 +141,15 @@
     <x:t>Abdel Rahman Mahmoud</x:t>
   </x:si>
   <x:si>
+    <x:t>1210059</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن هانى احمد رافت سيد حسن عبد الرؤوف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>abdelrahman hany ahmed raafat</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210251</x:t>
   </x:si>
   <x:si>
@@ -123,6 +159,69 @@
     <x:t>Abdelrahman wael abdelrazek el seid</x:t>
   </x:si>
   <x:si>
+    <x:t>1210262</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر خالد خليل محمد خلف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Khaled Khalil Mohamed Khalaf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210067</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر محمد عبد الصمد ذكى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Mohamed Abdel Samad Zaky</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1190475</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمرو ماهر نوفل عبد الرحمن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Amr Maher Nofal Abd Elrahman</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمرو محمد صديق جاد الرب محمود</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Amr Mohamed Seddeek Gad Elrab Mahmoud</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>فاطمه عبدالعزيز محمد عبده</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fatma Abdelaziz Mohamed Abdo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210076</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد شريف علاء جمال الدين زكى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed sherif alaa gamal eldin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210290</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد عمرو هاني حسين سيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed amr hany hussein sayed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210292</x:t>
   </x:si>
   <x:si>
@@ -150,6 +249,42 @@
     <x:t>Mahmoud Waleed Mahmoud El Shayep</x:t>
   </x:si>
   <x:si>
+    <x:t>1210307</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مصطفى شادي محمود محمد الشجيع</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mostafa Shady Mahmoud Mohamed Elshagie</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210083</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مصطفى هانى عبد الفتاح محمود العطار</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mostafa Hany Abdelfattah</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210417</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مصعب محمد عبد اللاه على عبد اللاه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mosaab Mohammed Abdella Ali</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210311</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ملك ياسر سعد احمد سلام</x:t>
+  </x:si>
+  <x:si>
+    <x:t>malak yasser saad ahmed sallam</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210031</x:t>
   </x:si>
   <x:si>
@@ -166,6 +301,15 @@
   </x:si>
   <x:si>
     <x:t>Mina Adel Maher Wasfi Nathan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1190535</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نهى وائل ابراهيم ابراهيم الكردى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Noha Wael Ibrahim Ibrahim Elkordy</x:t>
   </x:si>
   <x:si>
     <x:t>1210338</x:t>
@@ -290,7 +434,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E17" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -590,7 +734,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T17"/>
+  <x:dimension ref="A1:T33"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -598,7 +742,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="28.240625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="37.110625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="45.000625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -713,7 +857,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45920.4125008912</x:v>
+        <x:v>45927.6237115741</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -745,7 +889,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45918.3666763889</x:v>
+        <x:v>45927.6380579051</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -777,7 +921,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45920.4042996875</x:v>
+        <x:v>45920.4125008912</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -809,7 +953,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45923.9138647338</x:v>
+        <x:v>45927.6199820602</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -841,7 +985,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45925.4100621875</x:v>
+        <x:v>45918.3666763889</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -873,7 +1017,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45920.4104132292</x:v>
+        <x:v>45920.4042996875</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -905,7 +1049,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45920.4092335648</x:v>
+        <x:v>45923.9138647338</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -937,7 +1081,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45920.4022513079</x:v>
+        <x:v>45925.4100621875</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -969,7 +1113,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45920.4014879977</x:v>
+        <x:v>45920.4104132292</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1001,7 +1145,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45920.4030414699</x:v>
+        <x:v>45920.4092335648</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1033,7 +1177,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45920.400809919</x:v>
+        <x:v>45920.4022513079</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1065,7 +1209,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45920.4080319792</x:v>
+        <x:v>45927.4154122338</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1097,7 +1241,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45925.4111473032</x:v>
+        <x:v>45920.4014879977</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1129,7 +1273,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45920.4048861458</x:v>
+        <x:v>45927.5685485301</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1161,7 +1305,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45920.4062290856</x:v>
+        <x:v>45927.4157382755</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1178,6 +1322,518 @@
       <x:c r="R17" s="2" t="s"/>
       <x:c r="S17" s="2" t="s"/>
       <x:c r="T17" s="2" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:20">
+      <x:c r="A18" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B18" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D18" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E18" s="3">
+        <x:v>45927.414671412</x:v>
+      </x:c>
+      <x:c r="F18" s="2" t="s"/>
+      <x:c r="G18" s="2" t="s"/>
+      <x:c r="H18" s="2" t="s"/>
+      <x:c r="I18" s="2" t="s"/>
+      <x:c r="J18" s="2" t="s"/>
+      <x:c r="K18" s="2" t="s"/>
+      <x:c r="L18" s="2" t="s"/>
+      <x:c r="M18" s="2" t="s"/>
+      <x:c r="N18" s="2" t="s"/>
+      <x:c r="O18" s="2" t="s"/>
+      <x:c r="P18" s="2" t="s"/>
+      <x:c r="Q18" s="2" t="s"/>
+      <x:c r="R18" s="2" t="s"/>
+      <x:c r="S18" s="2" t="s"/>
+      <x:c r="T18" s="2" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:20">
+      <x:c r="A19" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B19" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="D19" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E19" s="3">
+        <x:v>45927.4153045949</x:v>
+      </x:c>
+      <x:c r="F19" s="2" t="s"/>
+      <x:c r="G19" s="2" t="s"/>
+      <x:c r="H19" s="2" t="s"/>
+      <x:c r="I19" s="2" t="s"/>
+      <x:c r="J19" s="2" t="s"/>
+      <x:c r="K19" s="2" t="s"/>
+      <x:c r="L19" s="2" t="s"/>
+      <x:c r="M19" s="2" t="s"/>
+      <x:c r="N19" s="2" t="s"/>
+      <x:c r="O19" s="2" t="s"/>
+      <x:c r="P19" s="2" t="s"/>
+      <x:c r="Q19" s="2" t="s"/>
+      <x:c r="R19" s="2" t="s"/>
+      <x:c r="S19" s="2" t="s"/>
+      <x:c r="T19" s="2" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:20">
+      <x:c r="A20" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D20" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E20" s="3">
+        <x:v>45927.4398878125</x:v>
+      </x:c>
+      <x:c r="F20" s="2" t="s"/>
+      <x:c r="G20" s="2" t="s"/>
+      <x:c r="H20" s="2" t="s"/>
+      <x:c r="I20" s="2" t="s"/>
+      <x:c r="J20" s="2" t="s"/>
+      <x:c r="K20" s="2" t="s"/>
+      <x:c r="L20" s="2" t="s"/>
+      <x:c r="M20" s="2" t="s"/>
+      <x:c r="N20" s="2" t="s"/>
+      <x:c r="O20" s="2" t="s"/>
+      <x:c r="P20" s="2" t="s"/>
+      <x:c r="Q20" s="2" t="s"/>
+      <x:c r="R20" s="2" t="s"/>
+      <x:c r="S20" s="2" t="s"/>
+      <x:c r="T20" s="2" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:20">
+      <x:c r="A21" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D21" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="E21" s="3">
+        <x:v>45927.6149961458</x:v>
+      </x:c>
+      <x:c r="F21" s="2" t="s"/>
+      <x:c r="G21" s="2" t="s"/>
+      <x:c r="H21" s="2" t="s"/>
+      <x:c r="I21" s="2" t="s"/>
+      <x:c r="J21" s="2" t="s"/>
+      <x:c r="K21" s="2" t="s"/>
+      <x:c r="L21" s="2" t="s"/>
+      <x:c r="M21" s="2" t="s"/>
+      <x:c r="N21" s="2" t="s"/>
+      <x:c r="O21" s="2" t="s"/>
+      <x:c r="P21" s="2" t="s"/>
+      <x:c r="Q21" s="2" t="s"/>
+      <x:c r="R21" s="2" t="s"/>
+      <x:c r="S21" s="2" t="s"/>
+      <x:c r="T21" s="2" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:20">
+      <x:c r="A22" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="D22" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E22" s="3">
+        <x:v>45927.4152532755</x:v>
+      </x:c>
+      <x:c r="F22" s="2" t="s"/>
+      <x:c r="G22" s="2" t="s"/>
+      <x:c r="H22" s="2" t="s"/>
+      <x:c r="I22" s="2" t="s"/>
+      <x:c r="J22" s="2" t="s"/>
+      <x:c r="K22" s="2" t="s"/>
+      <x:c r="L22" s="2" t="s"/>
+      <x:c r="M22" s="2" t="s"/>
+      <x:c r="N22" s="2" t="s"/>
+      <x:c r="O22" s="2" t="s"/>
+      <x:c r="P22" s="2" t="s"/>
+      <x:c r="Q22" s="2" t="s"/>
+      <x:c r="R22" s="2" t="s"/>
+      <x:c r="S22" s="2" t="s"/>
+      <x:c r="T22" s="2" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:20">
+      <x:c r="A23" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D23" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E23" s="3">
+        <x:v>45920.4030414699</x:v>
+      </x:c>
+      <x:c r="F23" s="2" t="s"/>
+      <x:c r="G23" s="2" t="s"/>
+      <x:c r="H23" s="2" t="s"/>
+      <x:c r="I23" s="2" t="s"/>
+      <x:c r="J23" s="2" t="s"/>
+      <x:c r="K23" s="2" t="s"/>
+      <x:c r="L23" s="2" t="s"/>
+      <x:c r="M23" s="2" t="s"/>
+      <x:c r="N23" s="2" t="s"/>
+      <x:c r="O23" s="2" t="s"/>
+      <x:c r="P23" s="2" t="s"/>
+      <x:c r="Q23" s="2" t="s"/>
+      <x:c r="R23" s="2" t="s"/>
+      <x:c r="S23" s="2" t="s"/>
+      <x:c r="T23" s="2" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:20">
+      <x:c r="A24" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D24" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E24" s="3">
+        <x:v>45920.400809919</x:v>
+      </x:c>
+      <x:c r="F24" s="2" t="s"/>
+      <x:c r="G24" s="2" t="s"/>
+      <x:c r="H24" s="2" t="s"/>
+      <x:c r="I24" s="2" t="s"/>
+      <x:c r="J24" s="2" t="s"/>
+      <x:c r="K24" s="2" t="s"/>
+      <x:c r="L24" s="2" t="s"/>
+      <x:c r="M24" s="2" t="s"/>
+      <x:c r="N24" s="2" t="s"/>
+      <x:c r="O24" s="2" t="s"/>
+      <x:c r="P24" s="2" t="s"/>
+      <x:c r="Q24" s="2" t="s"/>
+      <x:c r="R24" s="2" t="s"/>
+      <x:c r="S24" s="2" t="s"/>
+      <x:c r="T24" s="2" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:20">
+      <x:c r="A25" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D25" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E25" s="3">
+        <x:v>45920.4080319792</x:v>
+      </x:c>
+      <x:c r="F25" s="2" t="s"/>
+      <x:c r="G25" s="2" t="s"/>
+      <x:c r="H25" s="2" t="s"/>
+      <x:c r="I25" s="2" t="s"/>
+      <x:c r="J25" s="2" t="s"/>
+      <x:c r="K25" s="2" t="s"/>
+      <x:c r="L25" s="2" t="s"/>
+      <x:c r="M25" s="2" t="s"/>
+      <x:c r="N25" s="2" t="s"/>
+      <x:c r="O25" s="2" t="s"/>
+      <x:c r="P25" s="2" t="s"/>
+      <x:c r="Q25" s="2" t="s"/>
+      <x:c r="R25" s="2" t="s"/>
+      <x:c r="S25" s="2" t="s"/>
+      <x:c r="T25" s="2" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:20">
+      <x:c r="A26" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D26" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E26" s="3">
+        <x:v>45927.4151361111</x:v>
+      </x:c>
+      <x:c r="F26" s="2" t="s"/>
+      <x:c r="G26" s="2" t="s"/>
+      <x:c r="H26" s="2" t="s"/>
+      <x:c r="I26" s="2" t="s"/>
+      <x:c r="J26" s="2" t="s"/>
+      <x:c r="K26" s="2" t="s"/>
+      <x:c r="L26" s="2" t="s"/>
+      <x:c r="M26" s="2" t="s"/>
+      <x:c r="N26" s="2" t="s"/>
+      <x:c r="O26" s="2" t="s"/>
+      <x:c r="P26" s="2" t="s"/>
+      <x:c r="Q26" s="2" t="s"/>
+      <x:c r="R26" s="2" t="s"/>
+      <x:c r="S26" s="2" t="s"/>
+      <x:c r="T26" s="2" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:20">
+      <x:c r="A27" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="E27" s="3">
+        <x:v>45927.6212935185</x:v>
+      </x:c>
+      <x:c r="F27" s="2" t="s"/>
+      <x:c r="G27" s="2" t="s"/>
+      <x:c r="H27" s="2" t="s"/>
+      <x:c r="I27" s="2" t="s"/>
+      <x:c r="J27" s="2" t="s"/>
+      <x:c r="K27" s="2" t="s"/>
+      <x:c r="L27" s="2" t="s"/>
+      <x:c r="M27" s="2" t="s"/>
+      <x:c r="N27" s="2" t="s"/>
+      <x:c r="O27" s="2" t="s"/>
+      <x:c r="P27" s="2" t="s"/>
+      <x:c r="Q27" s="2" t="s"/>
+      <x:c r="R27" s="2" t="s"/>
+      <x:c r="S27" s="2" t="s"/>
+      <x:c r="T27" s="2" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:20">
+      <x:c r="A28" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D28" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E28" s="3">
+        <x:v>45927.4144778588</x:v>
+      </x:c>
+      <x:c r="F28" s="2" t="s"/>
+      <x:c r="G28" s="2" t="s"/>
+      <x:c r="H28" s="2" t="s"/>
+      <x:c r="I28" s="2" t="s"/>
+      <x:c r="J28" s="2" t="s"/>
+      <x:c r="K28" s="2" t="s"/>
+      <x:c r="L28" s="2" t="s"/>
+      <x:c r="M28" s="2" t="s"/>
+      <x:c r="N28" s="2" t="s"/>
+      <x:c r="O28" s="2" t="s"/>
+      <x:c r="P28" s="2" t="s"/>
+      <x:c r="Q28" s="2" t="s"/>
+      <x:c r="R28" s="2" t="s"/>
+      <x:c r="S28" s="2" t="s"/>
+      <x:c r="T28" s="2" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E29" s="3">
+        <x:v>45927.4159748495</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s"/>
+      <x:c r="G29" s="2" t="s"/>
+      <x:c r="H29" s="2" t="s"/>
+      <x:c r="I29" s="2" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="2" t="s"/>
+      <x:c r="M29" s="2" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
+      <x:c r="P29" s="2" t="s"/>
+      <x:c r="Q29" s="2" t="s"/>
+      <x:c r="R29" s="2" t="s"/>
+      <x:c r="S29" s="2" t="s"/>
+      <x:c r="T29" s="2" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:20">
+      <x:c r="A30" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E30" s="3">
+        <x:v>45925.4111473032</x:v>
+      </x:c>
+      <x:c r="F30" s="2" t="s"/>
+      <x:c r="G30" s="2" t="s"/>
+      <x:c r="H30" s="2" t="s"/>
+      <x:c r="I30" s="2" t="s"/>
+      <x:c r="J30" s="2" t="s"/>
+      <x:c r="K30" s="2" t="s"/>
+      <x:c r="L30" s="2" t="s"/>
+      <x:c r="M30" s="2" t="s"/>
+      <x:c r="N30" s="2" t="s"/>
+      <x:c r="O30" s="2" t="s"/>
+      <x:c r="P30" s="2" t="s"/>
+      <x:c r="Q30" s="2" t="s"/>
+      <x:c r="R30" s="2" t="s"/>
+      <x:c r="S30" s="2" t="s"/>
+      <x:c r="T30" s="2" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:20">
+      <x:c r="A31" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="E31" s="3">
+        <x:v>45920.4048861458</x:v>
+      </x:c>
+      <x:c r="F31" s="2" t="s"/>
+      <x:c r="G31" s="2" t="s"/>
+      <x:c r="H31" s="2" t="s"/>
+      <x:c r="I31" s="2" t="s"/>
+      <x:c r="J31" s="2" t="s"/>
+      <x:c r="K31" s="2" t="s"/>
+      <x:c r="L31" s="2" t="s"/>
+      <x:c r="M31" s="2" t="s"/>
+      <x:c r="N31" s="2" t="s"/>
+      <x:c r="O31" s="2" t="s"/>
+      <x:c r="P31" s="2" t="s"/>
+      <x:c r="Q31" s="2" t="s"/>
+      <x:c r="R31" s="2" t="s"/>
+      <x:c r="S31" s="2" t="s"/>
+      <x:c r="T31" s="2" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:20">
+      <x:c r="A32" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D32" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="E32" s="3">
+        <x:v>45927.6130852199</x:v>
+      </x:c>
+      <x:c r="F32" s="2" t="s"/>
+      <x:c r="G32" s="2" t="s"/>
+      <x:c r="H32" s="2" t="s"/>
+      <x:c r="I32" s="2" t="s"/>
+      <x:c r="J32" s="2" t="s"/>
+      <x:c r="K32" s="2" t="s"/>
+      <x:c r="L32" s="2" t="s"/>
+      <x:c r="M32" s="2" t="s"/>
+      <x:c r="N32" s="2" t="s"/>
+      <x:c r="O32" s="2" t="s"/>
+      <x:c r="P32" s="2" t="s"/>
+      <x:c r="Q32" s="2" t="s"/>
+      <x:c r="R32" s="2" t="s"/>
+      <x:c r="S32" s="2" t="s"/>
+      <x:c r="T32" s="2" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:20">
+      <x:c r="A33" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="D33" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="E33" s="3">
+        <x:v>45920.4062290856</x:v>
+      </x:c>
+      <x:c r="F33" s="2" t="s"/>
+      <x:c r="G33" s="2" t="s"/>
+      <x:c r="H33" s="2" t="s"/>
+      <x:c r="I33" s="2" t="s"/>
+      <x:c r="J33" s="2" t="s"/>
+      <x:c r="K33" s="2" t="s"/>
+      <x:c r="L33" s="2" t="s"/>
+      <x:c r="M33" s="2" t="s"/>
+      <x:c r="N33" s="2" t="s"/>
+      <x:c r="O33" s="2" t="s"/>
+      <x:c r="P33" s="2" t="s"/>
+      <x:c r="Q33" s="2" t="s"/>
+      <x:c r="R33" s="2" t="s"/>
+      <x:c r="S33" s="2" t="s"/>
+      <x:c r="T33" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS478_Lecture-35899.xlsx
+++ b/downloaded_files/MDPS478_Lecture-35899.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -96,6 +96,15 @@
     <x:t>Hazem mohamed abdelsalam lotfy</x:t>
   </x:si>
   <x:si>
+    <x:t>1210099</x:t>
+  </x:si>
+  <x:si>
+    <x:t>خالد ايمن عبد العظيم احمد محمد حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Khaled Ayman Abdelazem Ahmed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210053</x:t>
   </x:si>
   <x:si>
@@ -114,6 +123,24 @@
     <x:t>Rawan Mohamed Samawal Rezk</x:t>
   </x:si>
   <x:si>
+    <x:t>1210232</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زينة جميل إسماعيل إسماعيل العباسي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zeena Jameel Ismail Ismail Alabasy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210367</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبد الرحمن تامر حنفي محمود محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman Tamer Hanafy Mahmoud Mohamed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210149</x:t>
   </x:si>
   <x:si>
@@ -204,6 +231,15 @@
     <x:t>Fatma Abdelaziz Mohamed Abdo</x:t>
   </x:si>
   <x:si>
+    <x:t>1210285</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مازن احمد محمود سامي عبد المطلب شحاته</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mazen Ahmed Mahmoud Sami Abdel-Mottalib Shehata</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210076</x:t>
   </x:si>
   <x:si>
@@ -319,6 +355,15 @@
   </x:si>
   <x:si>
     <x:t>Youssef sayed bedier ahmed amin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210095</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف مصطفى محمد محمد شميلة</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Mostafa Mohamed Mohamed Shemela</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -434,7 +479,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -734,7 +779,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T33"/>
+  <x:dimension ref="A1:T38"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -743,7 +788,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="37.110625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="45.000625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="48.960625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -1049,7 +1094,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45923.9138647338</x:v>
+        <x:v>45933.6536650116</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1081,7 +1126,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45925.4100621875</x:v>
+        <x:v>45923.9138647338</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1113,7 +1158,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45920.4104132292</x:v>
+        <x:v>45925.4100621875</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1145,7 +1190,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45920.4092335648</x:v>
+        <x:v>45933.5334302083</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1177,7 +1222,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45920.4022513079</x:v>
+        <x:v>45933.5283290856</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1209,7 +1254,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45927.4154122338</x:v>
+        <x:v>45920.4104132292</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1241,7 +1286,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45920.4014879977</x:v>
+        <x:v>45920.4092335648</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1273,7 +1318,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45927.5685485301</x:v>
+        <x:v>45920.4022513079</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1305,7 +1350,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45927.4157382755</x:v>
+        <x:v>45927.4154122338</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1337,7 +1382,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45927.414671412</x:v>
+        <x:v>45920.4014879977</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1369,7 +1414,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45927.4153045949</x:v>
+        <x:v>45927.5685485301</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1401,7 +1446,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45927.4398878125</x:v>
+        <x:v>45927.4157382755</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1433,7 +1478,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45927.6149961458</x:v>
+        <x:v>45927.414671412</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1465,7 +1510,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45927.4152532755</x:v>
+        <x:v>45927.4153045949</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1497,7 +1542,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45920.4030414699</x:v>
+        <x:v>45927.4398878125</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1529,7 +1574,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45920.400809919</x:v>
+        <x:v>45933.3770772801</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1561,7 +1606,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45920.4080319792</x:v>
+        <x:v>45927.6149961458</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1593,7 +1638,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45927.4151361111</x:v>
+        <x:v>45927.4152532755</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1625,7 +1670,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45927.6212935185</x:v>
+        <x:v>45920.4030414699</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1657,7 +1702,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45927.4144778588</x:v>
+        <x:v>45920.400809919</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1689,7 +1734,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45927.4159748495</x:v>
+        <x:v>45920.4080319792</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1721,7 +1766,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45925.4111473032</x:v>
+        <x:v>45927.4151361111</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1753,7 +1798,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45920.4048861458</x:v>
+        <x:v>45927.6212935185</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1785,7 +1830,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45927.6130852199</x:v>
+        <x:v>45927.4144778588</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1817,7 +1862,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45920.4062290856</x:v>
+        <x:v>45927.4159748495</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1835,6 +1880,166 @@
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
     </x:row>
+    <x:row r="34" spans="1:20">
+      <x:c r="A34" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="E34" s="3">
+        <x:v>45925.4111473032</x:v>
+      </x:c>
+      <x:c r="F34" s="2" t="s"/>
+      <x:c r="G34" s="2" t="s"/>
+      <x:c r="H34" s="2" t="s"/>
+      <x:c r="I34" s="2" t="s"/>
+      <x:c r="J34" s="2" t="s"/>
+      <x:c r="K34" s="2" t="s"/>
+      <x:c r="L34" s="2" t="s"/>
+      <x:c r="M34" s="2" t="s"/>
+      <x:c r="N34" s="2" t="s"/>
+      <x:c r="O34" s="2" t="s"/>
+      <x:c r="P34" s="2" t="s"/>
+      <x:c r="Q34" s="2" t="s"/>
+      <x:c r="R34" s="2" t="s"/>
+      <x:c r="S34" s="2" t="s"/>
+      <x:c r="T34" s="2" t="s"/>
+    </x:row>
+    <x:row r="35" spans="1:20">
+      <x:c r="A35" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="E35" s="3">
+        <x:v>45920.4048861458</x:v>
+      </x:c>
+      <x:c r="F35" s="2" t="s"/>
+      <x:c r="G35" s="2" t="s"/>
+      <x:c r="H35" s="2" t="s"/>
+      <x:c r="I35" s="2" t="s"/>
+      <x:c r="J35" s="2" t="s"/>
+      <x:c r="K35" s="2" t="s"/>
+      <x:c r="L35" s="2" t="s"/>
+      <x:c r="M35" s="2" t="s"/>
+      <x:c r="N35" s="2" t="s"/>
+      <x:c r="O35" s="2" t="s"/>
+      <x:c r="P35" s="2" t="s"/>
+      <x:c r="Q35" s="2" t="s"/>
+      <x:c r="R35" s="2" t="s"/>
+      <x:c r="S35" s="2" t="s"/>
+      <x:c r="T35" s="2" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:20">
+      <x:c r="A36" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D36" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="E36" s="3">
+        <x:v>45927.6130852199</x:v>
+      </x:c>
+      <x:c r="F36" s="2" t="s"/>
+      <x:c r="G36" s="2" t="s"/>
+      <x:c r="H36" s="2" t="s"/>
+      <x:c r="I36" s="2" t="s"/>
+      <x:c r="J36" s="2" t="s"/>
+      <x:c r="K36" s="2" t="s"/>
+      <x:c r="L36" s="2" t="s"/>
+      <x:c r="M36" s="2" t="s"/>
+      <x:c r="N36" s="2" t="s"/>
+      <x:c r="O36" s="2" t="s"/>
+      <x:c r="P36" s="2" t="s"/>
+      <x:c r="Q36" s="2" t="s"/>
+      <x:c r="R36" s="2" t="s"/>
+      <x:c r="S36" s="2" t="s"/>
+      <x:c r="T36" s="2" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:20">
+      <x:c r="A37" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B37" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D37" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="E37" s="3">
+        <x:v>45920.4062290856</x:v>
+      </x:c>
+      <x:c r="F37" s="2" t="s"/>
+      <x:c r="G37" s="2" t="s"/>
+      <x:c r="H37" s="2" t="s"/>
+      <x:c r="I37" s="2" t="s"/>
+      <x:c r="J37" s="2" t="s"/>
+      <x:c r="K37" s="2" t="s"/>
+      <x:c r="L37" s="2" t="s"/>
+      <x:c r="M37" s="2" t="s"/>
+      <x:c r="N37" s="2" t="s"/>
+      <x:c r="O37" s="2" t="s"/>
+      <x:c r="P37" s="2" t="s"/>
+      <x:c r="Q37" s="2" t="s"/>
+      <x:c r="R37" s="2" t="s"/>
+      <x:c r="S37" s="2" t="s"/>
+      <x:c r="T37" s="2" t="s"/>
+    </x:row>
+    <x:row r="38" spans="1:20">
+      <x:c r="A38" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B38" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D38" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="E38" s="3">
+        <x:v>45933.3482671644</x:v>
+      </x:c>
+      <x:c r="F38" s="2" t="s"/>
+      <x:c r="G38" s="2" t="s"/>
+      <x:c r="H38" s="2" t="s"/>
+      <x:c r="I38" s="2" t="s"/>
+      <x:c r="J38" s="2" t="s"/>
+      <x:c r="K38" s="2" t="s"/>
+      <x:c r="L38" s="2" t="s"/>
+      <x:c r="M38" s="2" t="s"/>
+      <x:c r="N38" s="2" t="s"/>
+      <x:c r="O38" s="2" t="s"/>
+      <x:c r="P38" s="2" t="s"/>
+      <x:c r="Q38" s="2" t="s"/>
+      <x:c r="R38" s="2" t="s"/>
+      <x:c r="S38" s="2" t="s"/>
+      <x:c r="T38" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1847,6 +2052,9 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Vehicle System Dynamics and Control (MDPS478) Location : [14502]14502-30-الجيزة الرئيسي Time : Sunday(11:13)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
+  <x:rowBreaks count="1" manualBreakCount="1">
+    <x:brk id="35" max="1048576" man="1"/>
+  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>
